--- a/biology/Botanique/Ptychospermatinae/Ptychospermatinae.xlsx
+++ b/biology/Botanique/Ptychospermatinae/Ptychospermatinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ptychospermatinae sont une sous-tribu de plantes à fleurs appartenant à la famille des palmiers (Arecaceae). Cette sous-tribu de palmiers est naturellement distribuée dans la zone sud-ouest du Pacifique et contient 14 genres [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ptychospermatinae sont une sous-tribu de plantes à fleurs appartenant à la famille des palmiers (Arecaceae). Cette sous-tribu de palmiers est naturellement distribuée dans la zone sud-ouest du Pacifique et contient 14 genres .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les représentants de cette sous-tribu sont des palmiers petits à assez grands avec des feuilles pennées et les extrémités des feuilles déchirées, la gaine du manchon foliaire est très clairement développée. Les inflorescences sont largement ramifiées. Comme beaucoup de palmiers, les fleurs des espèces de la sous-tribu des Ptychospermatinae sont petites, trimères, unisexuées et toujours regroupées en inflorescences de différentes tailles. Cependant, ils présentent une grande diversité en nombre d'étamines (quelques-unes à plusieurs dizaines voire centaines),ce qui est mal comprise d'un point de vue évolutif. Bien que des progrès aient été accomplis dans l'élucidation des relations phylogénétiques au sein des Ptychospermatinae, certaines relations entre et au sein des genres restent encore à clarifier [3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les représentants de cette sous-tribu sont des palmiers petits à assez grands avec des feuilles pennées et les extrémités des feuilles déchirées, la gaine du manchon foliaire est très clairement développée. Les inflorescences sont largement ramifiées. Comme beaucoup de palmiers, les fleurs des espèces de la sous-tribu des Ptychospermatinae sont petites, trimères, unisexuées et toujours regroupées en inflorescences de différentes tailles. Cependant, ils présentent une grande diversité en nombre d'étamines (quelques-unes à plusieurs dizaines voire centaines),ce qui est mal comprise d'un point de vue évolutif. Bien que des progrès aient été accomplis dans l'élucidation des relations phylogénétiques au sein des Ptychospermatinae, certaines relations entre et au sein des genres restent encore à clarifier ,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon GRIN :
 Actinophloeus (Becc.) Becc. = Ptychosperma Labill.
